--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -172,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,11 +198,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC57"/>
+  <dimension ref="B2:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,12 +520,12 @@
     <col min="2" max="2" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:28" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>5</v>
       </c>
@@ -595,11 +604,8 @@
       <c r="AB3" s="3">
         <v>30</v>
       </c>
-      <c r="AC3" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -627,11 +633,11 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="3"/>
@@ -657,7 +663,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -687,7 +693,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -717,7 +723,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -742,15 +748,13 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -772,16 +776,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -802,14 +806,16 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
@@ -832,7 +838,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -862,7 +868,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -890,7 +896,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -915,7 +921,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -941,7 +947,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>

--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Base\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="24915" windowHeight="12585"/>
   </bookViews>
@@ -147,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,6 +223,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -265,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +306,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,7 +554,7 @@
   <dimension ref="B2:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="3"/>
@@ -698,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="3"/>
@@ -782,7 +824,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="3"/>

--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Base\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="24915" windowHeight="12585"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Framework roadmap</t>
   </si>
@@ -147,12 +142,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>x ( fade )</t>
+  </si>
+  <si>
+    <t>x ( lost )</t>
+  </si>
+  <si>
+    <t>show/hide bp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,26 +310,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,23 +345,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +858,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="3"/>
@@ -919,7 +889,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -998,12 +970,10 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1028,12 +998,10 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1058,12 +1026,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1089,10 +1055,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1119,10 +1084,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1149,10 +1113,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1179,10 +1142,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1264,13 +1226,12 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1541,7 +1502,9 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1569,7 +1532,9 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1597,7 +1562,9 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1625,7 +1592,9 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1952,7 +1921,9 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>

--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Framework roadmap</t>
   </si>
@@ -144,13 +144,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>x ( fade )</t>
-  </si>
-  <si>
-    <t>x ( lost )</t>
-  </si>
-  <si>
-    <t>show/hide bp</t>
+    <t>show-hide</t>
   </si>
 </sst>
 </file>
@@ -521,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB57"/>
+  <dimension ref="B2:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,8 +1496,8 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
-        <v>42</v>
+      <c r="I35" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1532,8 +1526,8 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
-        <v>42</v>
+      <c r="I36" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -1562,7 +1556,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J37" s="3"/>
@@ -1592,8 +1586,8 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
-        <v>43</v>
+      <c r="I38" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -1921,9 +1915,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1942,13 +1934,18 @@
       <c r="Y50" s="3"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -1967,9 +1964,6 @@
       <c r="Y51" s="3"/>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1995,6 +1989,9 @@
       <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2118,6 +2115,31 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L18" s="3"/>
